--- a/servis/wwwroot/Reports/report_client.xlsx
+++ b/servis/wwwroot/Reports/report_client.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Список клиентов</t>
   </si>
@@ -71,7 +71,7 @@
     <t>vlada@mail.ru</t>
   </si>
   <si>
-    <t>79930033401</t>
+    <t>79930033488</t>
   </si>
   <si>
     <t>Соня</t>
@@ -83,7 +83,19 @@
     <t>sonya@yandex.ru</t>
   </si>
   <si>
-    <t>79607190655</t>
+    <t>79607190633</t>
+  </si>
+  <si>
+    <t>Алексей</t>
+  </si>
+  <si>
+    <t>Яшин</t>
+  </si>
+  <si>
+    <t>lesha@mail.ru</t>
+  </si>
+  <si>
+    <t>77744592249</t>
   </si>
 </sst>
 </file>
@@ -406,7 +418,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
@@ -524,6 +536,29 @@
         <v>19</v>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" s="0">
+        <v>4</v>
+      </c>
+      <c r="B6" s="0">
+        <v>4</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="0">
+        <v>23</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells>
     <mergeCell ref="A1:G1"/>

--- a/servis/wwwroot/Reports/report_client.xlsx
+++ b/servis/wwwroot/Reports/report_client.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>Список клиентов</t>
   </si>
@@ -96,6 +96,30 @@
   </si>
   <si>
     <t>77744592249</t>
+  </si>
+  <si>
+    <t>Тая</t>
+  </si>
+  <si>
+    <t>Гурская</t>
+  </si>
+  <si>
+    <t>guregure@yandex.ru</t>
+  </si>
+  <si>
+    <t>79209334560</t>
+  </si>
+  <si>
+    <t>Алиса</t>
+  </si>
+  <si>
+    <t>Силезнева</t>
+  </si>
+  <si>
+    <t>alisa@mail.ru</t>
+  </si>
+  <si>
+    <t>79209053770</t>
   </si>
 </sst>
 </file>
@@ -418,7 +442,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
@@ -559,6 +583,52 @@
         <v>23</v>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" s="0">
+        <v>5</v>
+      </c>
+      <c r="B7" s="0">
+        <v>5</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="0">
+        <v>18</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0">
+        <v>6</v>
+      </c>
+      <c r="B8" s="0">
+        <v>6</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="0">
+        <v>23</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="G8" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells>
     <mergeCell ref="A1:G1"/>

--- a/servis/wwwroot/Reports/report_client.xlsx
+++ b/servis/wwwroot/Reports/report_client.xlsx
@@ -620,7 +620,7 @@
         <v>29</v>
       </c>
       <c r="E8" s="0">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F8" s="0" t="s">
         <v>30</v>
